--- a/Team-Data/2007-08/11-19-2007-08.xlsx
+++ b/Team-Data/2007-08/11-19-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-3.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
         <v>22</v>
@@ -771,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AN2" t="n">
         <v>28</v>
@@ -783,7 +850,7 @@
         <v>10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AR2" t="n">
         <v>12</v>
@@ -792,7 +859,7 @@
         <v>26</v>
       </c>
       <c r="AT2" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AU2" t="n">
         <v>20</v>
@@ -807,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ2" t="n">
         <v>8</v>
@@ -816,10 +883,10 @@
         <v>13</v>
       </c>
       <c r="BB2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -941,7 +1008,7 @@
         <v>5</v>
       </c>
       <c r="AI3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ3" t="n">
         <v>29</v>
@@ -956,7 +1023,7 @@
         <v>14</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO3" t="n">
         <v>12</v>
@@ -974,13 +1041,13 @@
         <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
@@ -998,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="BB3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC3" t="n">
         <v>1</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6</v>
+        <v>0.556</v>
       </c>
       <c r="H4" t="n">
         <v>48</v>
       </c>
       <c r="I4" t="n">
-        <v>33.8</v>
+        <v>33.2</v>
       </c>
       <c r="J4" t="n">
-        <v>78.5</v>
+        <v>78</v>
       </c>
       <c r="K4" t="n">
-        <v>0.431</v>
+        <v>0.426</v>
       </c>
       <c r="L4" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.376</v>
+        <v>0.38</v>
       </c>
       <c r="O4" t="n">
         <v>18.2</v>
@@ -1072,64 +1139,64 @@
         <v>0.672</v>
       </c>
       <c r="R4" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="S4" t="n">
-        <v>29.9</v>
+        <v>30.3</v>
       </c>
       <c r="T4" t="n">
-        <v>43.9</v>
+        <v>44.4</v>
       </c>
       <c r="U4" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="V4" t="n">
-        <v>17.6</v>
+        <v>17.9</v>
       </c>
       <c r="W4" t="n">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y4" t="n">
         <v>6.1</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="AA4" t="n">
         <v>21.8</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.7</v>
+        <v>90.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-2</v>
+        <v>-3.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH4" t="n">
         <v>15</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AJ4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL4" t="n">
         <v>16</v>
@@ -1138,7 +1205,7 @@
         <v>21</v>
       </c>
       <c r="AN4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
         <v>18</v>
@@ -1153,10 +1220,10 @@
         <v>3</v>
       </c>
       <c r="AS4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AT4" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AU4" t="n">
         <v>27</v>
@@ -1165,16 +1232,16 @@
         <v>27</v>
       </c>
       <c r="AW4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AY4" t="n">
         <v>27</v>
       </c>
       <c r="AZ4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
         <v>18</v>
@@ -1183,7 +1250,7 @@
         <v>26</v>
       </c>
       <c r="BC4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -1290,22 +1357,22 @@
         <v>-8.6</v>
       </c>
       <c r="AD5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF5" t="n">
         <v>25</v>
       </c>
-      <c r="AF5" t="n">
-        <v>23</v>
-      </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH5" t="n">
         <v>5</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ5" t="n">
         <v>4</v>
@@ -1314,7 +1381,7 @@
         <v>30</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM5" t="n">
         <v>13</v>
@@ -1344,7 +1411,7 @@
         <v>22</v>
       </c>
       <c r="AV5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AW5" t="n">
         <v>6</v>
@@ -1356,7 +1423,7 @@
         <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
         <v>14</v>
@@ -1365,7 +1432,7 @@
         <v>28</v>
       </c>
       <c r="BC5" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -1472,10 +1539,10 @@
         <v>-3.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>14</v>
@@ -1484,10 +1551,10 @@
         <v>14</v>
       </c>
       <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
         <v>8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>9</v>
       </c>
       <c r="AJ6" t="n">
         <v>3</v>
@@ -1544,10 +1611,10 @@
         <v>20</v>
       </c>
       <c r="BB6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -1654,22 +1721,22 @@
         <v>7.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF7" t="n">
         <v>2</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ7" t="n">
         <v>26</v>
@@ -1702,22 +1769,22 @@
         <v>9</v>
       </c>
       <c r="AT7" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AV7" t="n">
         <v>4</v>
       </c>
       <c r="AW7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AX7" t="n">
         <v>3</v>
       </c>
       <c r="AY7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ7" t="n">
         <v>16</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>9.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF8" t="n">
         <v>7</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>6</v>
       </c>
       <c r="AG8" t="n">
         <v>7</v>
@@ -1851,7 +1918,7 @@
         <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ8" t="n">
         <v>11</v>
@@ -1866,25 +1933,25 @@
         <v>5</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO8" t="n">
         <v>8</v>
       </c>
       <c r="AP8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR8" t="n">
         <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>3.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>9</v>
@@ -2033,16 +2100,16 @@
         <v>15</v>
       </c>
       <c r="AI9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM9" t="n">
         <v>20</v>
@@ -2051,7 +2118,7 @@
         <v>12</v>
       </c>
       <c r="AO9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>16</v>
@@ -2063,10 +2130,10 @@
         <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AU9" t="n">
         <v>5</v>
@@ -2078,7 +2145,7 @@
         <v>23</v>
       </c>
       <c r="AX9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY9" t="n">
         <v>1</v>
@@ -2090,7 +2157,7 @@
         <v>24</v>
       </c>
       <c r="BB9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC9" t="n">
         <v>11</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -2203,13 +2270,13 @@
         <v>28</v>
       </c>
       <c r="AE10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF10" t="n">
         <v>18</v>
       </c>
       <c r="AG10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH10" t="n">
         <v>15</v>
@@ -2221,7 +2288,7 @@
         <v>2</v>
       </c>
       <c r="AK10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2233,7 +2300,7 @@
         <v>21</v>
       </c>
       <c r="AO10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP10" t="n">
         <v>12</v>
@@ -2263,10 +2330,10 @@
         <v>9</v>
       </c>
       <c r="AY10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ10" t="n">
         <v>22</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>1.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2403,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>15</v>
@@ -2415,7 +2482,7 @@
         <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2439,7 +2506,7 @@
         <v>5</v>
       </c>
       <c r="AW11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX11" t="n">
         <v>21</v>
@@ -2448,7 +2515,7 @@
         <v>16</v>
       </c>
       <c r="AZ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA11" t="n">
         <v>17</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>16</v>
@@ -2576,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI12" t="n">
         <v>14</v>
@@ -2588,22 +2655,22 @@
         <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM12" t="n">
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO12" t="n">
         <v>17</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>13</v>
@@ -2612,13 +2679,13 @@
         <v>10</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW12" t="n">
         <v>13</v>
@@ -2639,7 +2706,7 @@
         <v>10</v>
       </c>
       <c r="BC12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -2746,16 +2813,16 @@
         <v>-2.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF13" t="n">
         <v>9</v>
       </c>
       <c r="AG13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
         <v>15</v>
@@ -2764,7 +2831,7 @@
         <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2794,22 +2861,22 @@
         <v>6</v>
       </c>
       <c r="AT13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ13" t="n">
         <v>10</v>
@@ -2821,7 +2888,7 @@
         <v>20</v>
       </c>
       <c r="BC13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>6.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE14" t="n">
         <v>9</v>
       </c>
       <c r="AF14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG14" t="n">
         <v>8</v>
@@ -2943,13 +3010,13 @@
         <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ14" t="n">
         <v>16</v>
       </c>
       <c r="AK14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL14" t="n">
         <v>18</v>
@@ -2961,19 +3028,19 @@
         <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="n">
         <v>5</v>
       </c>
       <c r="AQ14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR14" t="n">
         <v>10</v>
       </c>
       <c r="AS14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2982,28 +3049,28 @@
         <v>9</v>
       </c>
       <c r="AV14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY14" t="n">
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA14" t="n">
         <v>6</v>
       </c>
       <c r="BB14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -3032,118 +3099,118 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
         <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3</v>
+        <v>0.222</v>
       </c>
       <c r="H15" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>38.1</v>
+        <v>37</v>
       </c>
       <c r="J15" t="n">
-        <v>80.90000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.471</v>
+        <v>0.461</v>
       </c>
       <c r="L15" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>20</v>
+        <v>20.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="O15" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="P15" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R15" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S15" t="n">
-        <v>30.8</v>
+        <v>31.4</v>
       </c>
       <c r="T15" t="n">
-        <v>41.4</v>
+        <v>42.1</v>
       </c>
       <c r="U15" t="n">
-        <v>21.5</v>
+        <v>20.2</v>
       </c>
       <c r="V15" t="n">
-        <v>17.1</v>
+        <v>17.6</v>
       </c>
       <c r="W15" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="X15" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="AA15" t="n">
         <v>24.8</v>
       </c>
       <c r="AB15" t="n">
-        <v>106.1</v>
+        <v>104</v>
       </c>
       <c r="AC15" t="n">
-        <v>-2.7</v>
+        <v>-4.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI15" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AL15" t="n">
         <v>6</v>
       </c>
       <c r="AM15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AN15" t="n">
         <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP15" t="n">
         <v>8</v>
@@ -3152,31 +3219,31 @@
         <v>12</v>
       </c>
       <c r="AR15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AS15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AT15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AW15" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AY15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA15" t="n">
         <v>4</v>
@@ -3185,7 +3252,7 @@
         <v>5</v>
       </c>
       <c r="BC15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>-4.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF16" t="n">
         <v>29</v>
@@ -3307,7 +3374,7 @@
         <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ16" t="n">
         <v>21</v>
@@ -3337,10 +3404,10 @@
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU16" t="n">
         <v>24</v>
@@ -3355,7 +3422,7 @@
         <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ16" t="n">
         <v>1</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3556,7 @@
         <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ17" t="n">
         <v>10</v>
@@ -3501,7 +3568,7 @@
         <v>22</v>
       </c>
       <c r="AM17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AN17" t="n">
         <v>22</v>
@@ -3522,13 +3589,13 @@
         <v>19</v>
       </c>
       <c r="AT17" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV17" t="n">
         <v>11</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>10</v>
       </c>
       <c r="AW17" t="n">
         <v>22</v>
@@ -3540,16 +3607,16 @@
         <v>29</v>
       </c>
       <c r="AZ17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB17" t="n">
         <v>23</v>
       </c>
       <c r="BC17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3729,7 @@
         <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
         <v>30</v>
@@ -3674,7 +3741,7 @@
         <v>16</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK18" t="n">
         <v>18</v>
@@ -3695,7 +3762,7 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR18" t="n">
         <v>9</v>
@@ -3719,7 +3786,7 @@
         <v>20</v>
       </c>
       <c r="AY18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
@@ -3731,7 +3798,7 @@
         <v>24</v>
       </c>
       <c r="BC18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -3760,97 +3827,97 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E19" t="n">
         <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G19" t="n">
-        <v>0.364</v>
+        <v>0.4</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
       </c>
       <c r="I19" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="J19" t="n">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.39</v>
+        <v>0.394</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M19" t="n">
-        <v>16.7</v>
+        <v>16.3</v>
       </c>
       <c r="N19" t="n">
-        <v>0.299</v>
+        <v>0.301</v>
       </c>
       <c r="O19" t="n">
-        <v>21.9</v>
+        <v>22.2</v>
       </c>
       <c r="P19" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.748</v>
+        <v>0.766</v>
       </c>
       <c r="R19" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="S19" t="n">
-        <v>31.1</v>
+        <v>31.7</v>
       </c>
       <c r="T19" t="n">
-        <v>41.6</v>
+        <v>42.4</v>
       </c>
       <c r="U19" t="n">
-        <v>21</v>
+        <v>21.6</v>
       </c>
       <c r="V19" t="n">
         <v>18.7</v>
       </c>
       <c r="W19" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="X19" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y19" t="n">
         <v>4.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>24.6</v>
+        <v>24.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="AB19" t="n">
-        <v>84.7</v>
+        <v>85.7</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9.699999999999999</v>
+        <v>-8</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
         <v>16</v>
       </c>
       <c r="AF19" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3862,7 +3929,7 @@
         <v>29</v>
       </c>
       <c r="AL19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AM19" t="n">
         <v>19</v>
@@ -3871,25 +3938,25 @@
         <v>27</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AR19" t="n">
         <v>20</v>
       </c>
       <c r="AS19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AT19" t="n">
         <v>15</v>
       </c>
-      <c r="AT19" t="n">
-        <v>21</v>
-      </c>
       <c r="AU19" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AV19" t="n">
         <v>30</v>
@@ -3913,7 +3980,7 @@
         <v>30</v>
       </c>
       <c r="BC19" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -3942,112 +4009,112 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E20" t="n">
         <v>9</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" t="n">
-        <v>0.75</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>81.8</v>
+        <v>81.7</v>
       </c>
       <c r="K20" t="n">
-        <v>0.461</v>
+        <v>0.464</v>
       </c>
       <c r="L20" t="n">
-        <v>8.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="M20" t="n">
-        <v>19.9</v>
+        <v>20.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.435</v>
+        <v>0.45</v>
       </c>
       <c r="O20" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="P20" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="R20" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="S20" t="n">
-        <v>31.3</v>
+        <v>31.5</v>
       </c>
       <c r="T20" t="n">
-        <v>41.8</v>
+        <v>42.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="V20" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W20" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X20" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA20" t="n">
-        <v>19</v>
+        <v>19.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>98.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.8</v>
+        <v>9.1</v>
       </c>
       <c r="AD20" t="n">
         <v>1</v>
       </c>
       <c r="AE20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF20" t="n">
         <v>2</v>
       </c>
-      <c r="AF20" t="n">
-        <v>6</v>
-      </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AH20" t="n">
         <v>13</v>
       </c>
       <c r="AI20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AM20" t="n">
         <v>8</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>9</v>
       </c>
       <c r="AN20" t="n">
         <v>1</v>
@@ -4062,28 +4129,28 @@
         <v>5</v>
       </c>
       <c r="AR20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AS20" t="n">
         <v>13</v>
       </c>
       <c r="AT20" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AU20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ20" t="n">
         <v>3</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="BC20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -4202,16 +4269,16 @@
         <v>-6.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF21" t="n">
         <v>25</v>
       </c>
-      <c r="AF21" t="n">
-        <v>23</v>
-      </c>
       <c r="AG21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH21" t="n">
         <v>1</v>
@@ -4244,7 +4311,7 @@
         <v>22</v>
       </c>
       <c r="AR21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -4306,79 +4373,79 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
         <v>2</v>
       </c>
       <c r="G22" t="n">
-        <v>0.833</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H22" t="n">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J22" t="n">
-        <v>77.8</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L22" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="M22" t="n">
-        <v>25.4</v>
+        <v>25</v>
       </c>
       <c r="N22" t="n">
-        <v>0.367</v>
+        <v>0.378</v>
       </c>
       <c r="O22" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="P22" t="n">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.738</v>
+        <v>0.731</v>
       </c>
       <c r="R22" t="n">
-        <v>8.6</v>
+        <v>8.9</v>
       </c>
       <c r="S22" t="n">
-        <v>34.4</v>
+        <v>34.1</v>
       </c>
       <c r="T22" t="n">
         <v>43</v>
       </c>
       <c r="U22" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="V22" t="n">
-        <v>15.2</v>
+        <v>14.7</v>
       </c>
       <c r="W22" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="X22" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z22" t="n">
-        <v>19.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA22" t="n">
-        <v>24.7</v>
+        <v>25.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>102.2</v>
+        <v>102.8</v>
       </c>
       <c r="AC22" t="n">
         <v>7.2</v>
@@ -4399,13 +4466,13 @@
         <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
         <v>2</v>
@@ -4414,49 +4481,49 @@
         <v>3</v>
       </c>
       <c r="AN22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AO22" t="n">
         <v>11</v>
       </c>
       <c r="AP22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>13</v>
       </c>
       <c r="AU22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW22" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX22" t="n">
         <v>25</v>
       </c>
       <c r="AY22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BB22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC22" t="n">
         <v>6</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-2.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>22</v>
@@ -4611,7 +4678,7 @@
         <v>8</v>
       </c>
       <c r="AS23" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AT23" t="n">
         <v>6</v>
@@ -4626,7 +4693,7 @@
         <v>18</v>
       </c>
       <c r="AX23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY23" t="n">
         <v>8</v>
@@ -4635,13 +4702,13 @@
         <v>16</v>
       </c>
       <c r="BA23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB23" t="n">
         <v>27</v>
       </c>
       <c r="BC23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>6.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4757,7 +4824,7 @@
         <v>2</v>
       </c>
       <c r="AG24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH24" t="n">
         <v>15</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL24" t="n">
         <v>1</v>
@@ -4790,13 +4857,13 @@
         <v>17</v>
       </c>
       <c r="AR24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS24" t="n">
         <v>7</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>2</v>
@@ -4820,10 +4887,10 @@
         <v>25</v>
       </c>
       <c r="BB24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -4852,94 +4919,94 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
         <v>4</v>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G25" t="n">
-        <v>0.364</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
       </c>
       <c r="I25" t="n">
-        <v>35.4</v>
+        <v>35.7</v>
       </c>
       <c r="J25" t="n">
-        <v>77</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.459</v>
+        <v>0.463</v>
       </c>
       <c r="L25" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="M25" t="n">
-        <v>14.8</v>
+        <v>14.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.374</v>
+        <v>0.366</v>
       </c>
       <c r="O25" t="n">
-        <v>17.3</v>
+        <v>17</v>
       </c>
       <c r="P25" t="n">
         <v>22.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.757</v>
+        <v>0.746</v>
       </c>
       <c r="R25" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>29.8</v>
+        <v>30.2</v>
       </c>
       <c r="T25" t="n">
-        <v>38.9</v>
+        <v>39.4</v>
       </c>
       <c r="U25" t="n">
-        <v>20</v>
+        <v>20.7</v>
       </c>
       <c r="V25" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="W25" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="X25" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>93.5</v>
+        <v>93.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5</v>
+        <v>-4.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE25" t="n">
         <v>16</v>
       </c>
       <c r="AF25" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AG25" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AH25" t="n">
         <v>15</v>
@@ -4951,16 +5018,16 @@
         <v>27</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM25" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
         <v>20</v>
@@ -4969,34 +5036,34 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AR25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AT25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU25" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AV25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AW25" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AX25" t="n">
         <v>28</v>
       </c>
       <c r="AY25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA25" t="n">
         <v>15</v>
@@ -5005,7 +5072,7 @@
         <v>25</v>
       </c>
       <c r="BC25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-5.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE26" t="n">
         <v>16</v>
@@ -5136,19 +5203,19 @@
         <v>15</v>
       </c>
       <c r="AL26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM26" t="n">
         <v>24</v>
       </c>
       <c r="AN26" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO26" t="n">
         <v>1</v>
       </c>
       <c r="AP26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
@@ -5166,7 +5233,7 @@
         <v>30</v>
       </c>
       <c r="AV26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW26" t="n">
         <v>19</v>
@@ -5184,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="BB26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>7.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE27" t="n">
         <v>3</v>
@@ -5303,7 +5370,7 @@
         <v>2</v>
       </c>
       <c r="AG27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH27" t="n">
         <v>15</v>
@@ -5312,22 +5379,22 @@
         <v>18</v>
       </c>
       <c r="AJ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL27" t="n">
         <v>8</v>
       </c>
       <c r="AM27" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN27" t="n">
         <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP27" t="n">
         <v>24</v>
@@ -5336,10 +5403,10 @@
         <v>13</v>
       </c>
       <c r="AR27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AS27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT27" t="n">
         <v>27</v>
@@ -5354,13 +5421,13 @@
         <v>15</v>
       </c>
       <c r="AX27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY27" t="n">
         <v>12</v>
       </c>
       <c r="AZ27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -5398,88 +5465,88 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.167</v>
+        <v>0.182</v>
       </c>
       <c r="H28" t="n">
-        <v>48.8</v>
+        <v>48.9</v>
       </c>
       <c r="I28" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>87.8</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K28" t="n">
-        <v>0.433</v>
+        <v>0.431</v>
       </c>
       <c r="L28" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="M28" t="n">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="N28" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O28" t="n">
-        <v>19.3</v>
+        <v>18.6</v>
       </c>
       <c r="P28" t="n">
-        <v>24.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R28" t="n">
-        <v>12.3</v>
+        <v>11.7</v>
       </c>
       <c r="S28" t="n">
-        <v>33.3</v>
+        <v>33.5</v>
       </c>
       <c r="T28" t="n">
-        <v>45.5</v>
+        <v>45.3</v>
       </c>
       <c r="U28" t="n">
         <v>20.8</v>
       </c>
       <c r="V28" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="W28" t="n">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X28" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="Z28" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.8</v>
+        <v>20.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>100.1</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8</v>
       </c>
       <c r="AD28" t="n">
         <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF28" t="n">
         <v>30</v>
@@ -5500,7 +5567,7 @@
         <v>22</v>
       </c>
       <c r="AL28" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AM28" t="n">
         <v>28</v>
@@ -5509,25 +5576,25 @@
         <v>19</v>
       </c>
       <c r="AO28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR28" t="n">
         <v>14</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>11</v>
       </c>
       <c r="AS28" t="n">
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV28" t="n">
         <v>29</v>
@@ -5536,22 +5603,22 @@
         <v>7</v>
       </c>
       <c r="AX28" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AY28" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AZ28" t="n">
         <v>26</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BC28" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -5658,10 +5725,10 @@
         <v>3.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF29" t="n">
         <v>14</v>
@@ -5670,7 +5737,7 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI29" t="n">
         <v>15</v>
@@ -5682,16 +5749,16 @@
         <v>17</v>
       </c>
       <c r="AL29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN29" t="n">
         <v>2</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
         <v>28</v>
@@ -5718,7 +5785,7 @@
         <v>15</v>
       </c>
       <c r="AX29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY29" t="n">
         <v>14</v>
@@ -5730,7 +5797,7 @@
         <v>25</v>
       </c>
       <c r="BB29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -5762,106 +5829,106 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F30" t="n">
         <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>0.667</v>
+        <v>0.636</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>39.6</v>
+        <v>40</v>
       </c>
       <c r="J30" t="n">
-        <v>81.59999999999999</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.485</v>
+        <v>0.482</v>
       </c>
       <c r="L30" t="n">
         <v>3.9</v>
       </c>
       <c r="M30" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="N30" t="n">
-        <v>0.359</v>
+        <v>0.355</v>
       </c>
       <c r="O30" t="n">
-        <v>23.6</v>
+        <v>23.2</v>
       </c>
       <c r="P30" t="n">
-        <v>30.9</v>
+        <v>29.8</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.763</v>
+        <v>0.777</v>
       </c>
       <c r="R30" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="S30" t="n">
-        <v>30.2</v>
+        <v>29.7</v>
       </c>
       <c r="T30" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U30" t="n">
-        <v>26.2</v>
+        <v>26.7</v>
       </c>
       <c r="V30" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="W30" t="n">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="X30" t="n">
         <v>4.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Z30" t="n">
         <v>23.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>24.9</v>
+        <v>24.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>106.7</v>
+        <v>107.1</v>
       </c>
       <c r="AC30" t="n">
-        <v>6.8</v>
+        <v>4.9</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
         <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>15</v>
       </c>
       <c r="AI30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL30" t="n">
         <v>30</v>
@@ -5870,25 +5937,25 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO30" t="n">
         <v>2</v>
       </c>
       <c r="AP30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AR30" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AS30" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5897,25 +5964,25 @@
         <v>22</v>
       </c>
       <c r="AW30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AY30" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ30" t="n">
         <v>25</v>
       </c>
       <c r="BA30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-1.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6046,7 +6113,7 @@
         <v>28</v>
       </c>
       <c r="AL31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM31" t="n">
         <v>11</v>
@@ -6067,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT31" t="n">
         <v>5</v>
@@ -6082,7 +6149,7 @@
         <v>11</v>
       </c>
       <c r="AX31" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-19-2007-08</t>
+          <t>2007-11-19</t>
         </is>
       </c>
     </row>
